--- a/data/trans_bre/P57_AC_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P57_AC_R-Provincia-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>0.01575154270581435</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.09786981958723089</v>
+        <v>0.09786981958723087</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.115521793109908</v>
+        <v>3.415559370732994</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4957259963838823</v>
+        <v>1.15476811445935</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.791451600931139</v>
+        <v>-5.550906881170705</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.406857588429063</v>
+        <v>-2.266334432168419</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.0501448161325076</v>
+        <v>0.04163050768124981</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006167250425284937</v>
+        <v>0.01554108803175306</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.0561278163977137</v>
+        <v>-0.06491614746866226</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.02257252480791318</v>
+        <v>-0.03751595375467144</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.10595233570059</v>
+        <v>15.38255090925889</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.82376552850178</v>
+        <v>15.82578360176753</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.820475054688691</v>
+        <v>8.104396344676754</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.84971382265727</v>
+        <v>13.30049297764505</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2147485373161997</v>
+        <v>0.2019259186157427</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2297786920555199</v>
+        <v>0.2326377763476705</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1007275740857772</v>
+        <v>0.1040991552006474</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.254582788594417</v>
+        <v>0.266744022134301</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.6654717651990216</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-5.709759593638008</v>
+        <v>-5.709759593637997</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1296037962006008</v>
@@ -749,7 +749,7 @@
         <v>0.008322478844549088</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.09019206118521303</v>
+        <v>-0.09019206118521286</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.008260121138735</v>
+        <v>1.506120850125546</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.484662148488439</v>
+        <v>-4.803766616496913</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.793802233428604</v>
+        <v>-4.073324818464134</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-12.07415680604664</v>
+        <v>-12.57024061039415</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0317470013058852</v>
+        <v>0.02393224106194328</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.07882679536699888</v>
+        <v>-0.08158849946059846</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.05731648912752074</v>
+        <v>-0.04967822841847688</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1806928927789378</v>
+        <v>-0.184822220372883</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>13.72262463256337</v>
+        <v>13.31673609758985</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.612971036644316</v>
+        <v>8.594088412513894</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.485350026331146</v>
+        <v>5.466161056661013</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9222681442427959</v>
+        <v>0.8982514458966424</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2453682338550267</v>
+        <v>0.2409759619497079</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1690593286016507</v>
+        <v>0.1594140489291095</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07206501393554784</v>
+        <v>0.06978948278738528</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.01242587012020006</v>
+        <v>0.01465202236551108</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>9.665770870852741</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.001223635872249</v>
+        <v>6.001223635872243</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.08116007595868931</v>
@@ -849,7 +849,7 @@
         <v>0.135737163704865</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1310505184124352</v>
+        <v>0.1310505184124351</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-12.62669001063524</v>
+        <v>-12.63922111729266</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.299469784412142</v>
+        <v>0.8532245530997785</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.591431847495021</v>
+        <v>2.777766322115884</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.177776421101721</v>
+        <v>-1.260787105438992</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.189360453371738</v>
+        <v>-0.1953250966051869</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0190303336078582</v>
+        <v>0.01254069333395687</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03537041530365785</v>
+        <v>0.03548148299524791</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.04469519047203817</v>
+        <v>-0.02594376693682224</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.816775825436044</v>
+        <v>3.272874694555115</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.72314347997084</v>
+        <v>15.51531739437072</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.19625936093417</v>
+        <v>16.1486403160232</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.92720073727708</v>
+        <v>12.90120171452768</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.04941997232560345</v>
+        <v>0.05360181715690175</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2810573984308741</v>
+        <v>0.2558898209324411</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.242367608719195</v>
+        <v>0.2403306179342873</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3091937536721401</v>
+        <v>0.3064438190312284</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-8.285916912135395</v>
+        <v>-8.315303297282121</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.12616698970297</v>
+        <v>1.873127146996225</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.674062266033494</v>
+        <v>1.951377971408194</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.719189938498658</v>
+        <v>-4.213271777135754</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1109115395127405</v>
+        <v>-0.1119954269684018</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03951439529539959</v>
+        <v>0.03461016240272802</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03213149618618357</v>
+        <v>0.03613030833878212</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1267886237110739</v>
+        <v>-0.1112989310230909</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.183599124686671</v>
+        <v>4.43596708552738</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.87336548330504</v>
+        <v>16.3734988732603</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>16.86586654927128</v>
+        <v>16.18649692331299</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10.93609544030626</v>
+        <v>10.98768848078775</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.07725255018062263</v>
+        <v>0.06682323544535256</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3553161246856051</v>
+        <v>0.344610881370042</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4002408722693492</v>
+        <v>0.3809762734952452</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3834280677611858</v>
+        <v>0.3844690149127073</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.056229372141848</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.027131378292645</v>
+        <v>1.027131378292634</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08678184436856751</v>
@@ -1049,7 +1049,7 @@
         <v>0.01224015946638831</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.0111918695096544</v>
+        <v>0.01119186950965428</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.8570862172952536</v>
+        <v>-0.4901796963481057</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.75159007210209</v>
+        <v>8.57464874638608</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.26104245625593</v>
+        <v>-4.847842030557546</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.745878841602174</v>
+        <v>-3.488813440046119</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.008962966781166022</v>
+        <v>-0.005777539480063022</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1437087935745145</v>
+        <v>0.1472628764781798</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.05846778875134859</v>
+        <v>-0.05491834218409273</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.03953067142043684</v>
+        <v>-0.03685220805574471</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.41740224571707</v>
+        <v>13.79205418774003</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>27.20104500564374</v>
+        <v>27.69948137604158</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.396653655264404</v>
+        <v>7.120896391376337</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.350088737842376</v>
+        <v>6.328319329426275</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1962831767953395</v>
+        <v>0.1870655142047781</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5671147145402105</v>
+        <v>0.5817248220529542</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08962001193220877</v>
+        <v>0.08627994187188871</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.07226553647693355</v>
+        <v>0.07213554269653176</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-3.554464452921657</v>
+        <v>-3.170667031308684</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>7.544313535838029</v>
+        <v>6.623986722727662</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-7.732931365001031</v>
+        <v>-7.685548483724344</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-6.63581336452477</v>
+        <v>-6.877724609112282</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.04576890918375676</v>
+        <v>-0.04307642300587512</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.110797140311047</v>
+        <v>0.09864846648033404</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.0962564030966364</v>
+        <v>-0.09561498311181177</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1475788514433025</v>
+        <v>-0.1511721007458671</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>11.90314929491469</v>
+        <v>11.75261633459373</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>22.96441858434143</v>
+        <v>22.32384716335664</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6.195018771562554</v>
+        <v>6.744544591789932</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7.53245722560062</v>
+        <v>7.214468158628809</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1851913464610681</v>
+        <v>0.1827004833459091</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4073295102191363</v>
+        <v>0.3857261790943805</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08398763220640096</v>
+        <v>0.09305254983747656</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2085598102948435</v>
+        <v>0.1942882868313298</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>3.421905961439298</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.234839081496852</v>
+        <v>1.234839081496863</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.06417294482840877</v>
@@ -1249,7 +1249,7 @@
         <v>0.04168674140566699</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.01970853558049813</v>
+        <v>0.0197085355804983</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-9.569767990319422</v>
+        <v>-8.752708585102042</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.117210189274615</v>
+        <v>3.786792972537051</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.026947520087324</v>
+        <v>-0.7403698735139768</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.336009932355909</v>
+        <v>-4.966993852299359</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.1728542772334815</v>
+        <v>-0.16039088702239</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06553864104649276</v>
+        <v>0.059446886679421</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.01214943073205971</v>
+        <v>-0.008792256341581019</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.06552823628178031</v>
+        <v>-0.07378513766862119</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.297426786163582</v>
+        <v>2.231501669186924</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>15.12662953701977</v>
+        <v>14.67673616437195</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.602838294699048</v>
+        <v>7.773484653743084</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.886769129602968</v>
+        <v>6.300403093718343</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.04641222560186041</v>
+        <v>0.04406463305466417</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2628466644983055</v>
+        <v>0.2573581942881747</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09646288632829245</v>
+        <v>0.0985541600210333</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.1131977835785853</v>
+        <v>0.1058225048919153</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>1.182314418984531</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2.605649407900035</v>
+        <v>2.605649407900024</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07799542361962479</v>
@@ -1349,7 +1349,7 @@
         <v>0.01281315252528704</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.03079006535178926</v>
+        <v>0.03079006535178912</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.409554595211449</v>
+        <v>2.495897120541765</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-4.04436376330328</v>
+        <v>-3.950676937183478</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.374942240422889</v>
+        <v>-1.489693637777631</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-1.075698197352117</v>
+        <v>-0.6354479666229719</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.03024885695352838</v>
+        <v>0.0306659460314765</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.04401028524932206</v>
+        <v>-0.04362101634078662</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.01446132706061245</v>
+        <v>-0.01582465614489873</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.0124372717786988</v>
+        <v>-0.007540836251777628</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>10.41026388020505</v>
+        <v>10.07575803747391</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.517715828719729</v>
+        <v>2.281001220343556</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.862661000711777</v>
+        <v>3.591018212575356</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6.082387460509977</v>
+        <v>6.343167626983706</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1341210829147854</v>
+        <v>0.1304882189206195</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02857955248861331</v>
+        <v>0.02596402228905747</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04244155024168641</v>
+        <v>0.03975538451654703</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.07402054612390518</v>
+        <v>0.07704060263422545</v>
       </c>
     </row>
     <row r="28">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.3989066235438271</v>
+        <v>0.5532434128551464</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>4.616132979467904</v>
+        <v>4.855256639604904</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.044403120220801</v>
+        <v>1.112869828736984</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.7859512823983416</v>
+        <v>-1.028426970611082</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.005691941806400449</v>
+        <v>0.008048270227557046</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06897670023178303</v>
+        <v>0.0723102840921217</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01321285294038323</v>
+        <v>0.01398855160261</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.01266211383239178</v>
+        <v>-0.01609433930253731</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.045387588760863</v>
+        <v>4.82233602098122</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.185825794334885</v>
+        <v>9.220146913572403</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.047289422225847</v>
+        <v>4.958550865046661</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.850008110520726</v>
+        <v>3.897775528702724</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.07571215758711709</v>
+        <v>0.07257561489187474</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1413435331019702</v>
+        <v>0.1431246773008628</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06436409513167946</v>
+        <v>0.06336374746650419</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.0634243025044639</v>
+        <v>0.06414226045113501</v>
       </c>
     </row>
     <row r="31">
